--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/05.DoiMoiBH/DM2101.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/05.DoiMoiBH/DM2101.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\05.DoiMoiBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\05.DoiMoiBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -56,9 +56,6 @@
     <t>Bảo Hành</t>
   </si>
   <si>
-    <t>Địa chỉ :</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -74,38 +71,62 @@
     <t>XÁC NHẬN PHÒNG BẢO HÀNH</t>
   </si>
   <si>
-    <t>Hà Văn Thể</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                              XÁC NHẬN P.NGHIÊN CỨU PHÁT TRIỂN</t>
   </si>
   <si>
     <t>Nguyên Nhân</t>
   </si>
   <si>
-    <t>ĐT :    +84915223399</t>
-  </si>
-  <si>
     <t>Website: http://vn-et.com</t>
   </si>
   <si>
-    <t xml:space="preserve">                                         Hà Nội, ngày 04 tháng 01 Năm 2021</t>
-  </si>
-  <si>
     <t>Nguyễn Tất Hào</t>
   </si>
   <si>
-    <t>Người đại diện: Đại lý GPS Tây Ninh</t>
-  </si>
-  <si>
     <t>ĐC: Tầng 1, Tòa nhà Sơn Hà, Số 02, Phố Thanh Lâm, Phường Minh Khai, Quận Bắc Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>ACT-01</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Thiết bị báo sai nhiệt độ</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>Chưa rõ nguyên nhân</t>
+  </si>
+  <si>
+    <t>Thiết bị không rõ Imei</t>
+  </si>
+  <si>
+    <t>Thiết bị không báo nhiệt độ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         Hà Nội, ngày 03 tháng 03 Năm 2021</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>Người đại diện: Đai lý Kim Long</t>
+  </si>
+  <si>
+    <t>Địa chỉ:</t>
+  </si>
+  <si>
+    <t>ĐT : 0915 223 399</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +217,12 @@
       <b/>
       <i/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -215,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -239,17 +266,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -262,32 +278,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -296,7 +286,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -333,18 +323,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -392,10 +370,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,25 +406,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,15 +435,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>145678</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157443</xdr:rowOff>
+      <xdr:rowOff>179855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1893794</xdr:colOff>
+      <xdr:colOff>1815354</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -485,8 +466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="157443"/>
-          <a:ext cx="3238500" cy="895910"/>
+          <a:off x="145678" y="179855"/>
+          <a:ext cx="3294529" cy="895910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -788,97 +769,97 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="28" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" style="26" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="42" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="A5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
@@ -886,11 +867,11 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
+      <c r="A7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -899,24 +880,24 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="A8" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -924,15 +905,15 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="M9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -960,147 +941,176 @@
         <v>9</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="14"/>
+      <c r="B12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="44">
+        <v>291220008</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="D15" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="39" t="s">
+      <c r="A16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="A22" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
@@ -1112,14 +1122,9 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A22:F22"/>
   </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
